--- a/iips_website/pbas_testcases/TestCase_ProfilePage.xlsx
+++ b/iips_website/pbas_testcases/TestCase_ProfilePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>Test the Profile Page Functionality of IIPS_PBAS.</t>
+  </si>
+  <si>
+    <t>data shouldnot be saved in db .</t>
+  </si>
+  <si>
+    <t>if skip any  mandatory field  in form.</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Save Button </t>
+  </si>
+  <si>
+    <t>data should not be stored in db.</t>
+  </si>
+  <si>
+    <t>Verifying the entering mandatory  fields of form.</t>
+  </si>
+  <si>
+    <t>should be redirect to skipped mandatory Field to fill.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -507,90 +528,147 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -599,54 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -665,8 +695,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,7 +966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -957,44 +991,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="39" t="s">
+      <c r="E2" s="46"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="49" t="s">
+      <c r="I2" s="46"/>
+      <c r="J2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="50"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="14"/>
@@ -1010,25 +1044,25 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="39" t="s">
+      <c r="E4" s="52"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="52"/>
+      <c r="J4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="18"/>
@@ -1047,62 +1081,62 @@
       <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="22">
         <v>1</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="14"/>
       <c r="F7" s="22">
         <v>1</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="14"/>
       <c r="F8" s="22">
         <v>2</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="14"/>
@@ -1135,313 +1169,313 @@
       <c r="K10" s="15"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="33" t="s">
+      <c r="E12" s="57"/>
+      <c r="F12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1">
       <c r="A14" s="22">
         <v>1</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="22">
         <v>2</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="30" t="s">
+      <c r="E15" s="40"/>
+      <c r="F15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="30" t="s">
+      <c r="G15" s="39"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="22">
         <v>3</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="30" t="s">
+      <c r="G16" s="39"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="22">
         <v>4</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="30" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="30" t="s">
+      <c r="G17" s="39"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="22">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30" t="s">
+      <c r="G18" s="39"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="33" t="s">
+      <c r="E22" s="57"/>
+      <c r="F22" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="33" t="s">
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="22">
         <v>1</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="38" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="30" t="s">
+      <c r="G24" s="39"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="22">
         <v>2</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="38" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="30" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="30" t="s">
+      <c r="G25" s="39"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="22">
         <v>3</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="30" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="30" t="s">
+      <c r="G26" s="39"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="22">
         <v>4</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="30" t="s">
+      <c r="G27" s="39"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="22">
         <v>5</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="90" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="30" t="s">
+      <c r="G28" s="39"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="22">
@@ -1451,7 +1485,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="26"/>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="36" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="27" t="s">
@@ -1469,58 +1503,299 @@
       <c r="A30" s="22">
         <v>6</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="30" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="30" t="s">
+      <c r="G30" s="39"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="22">
+        <v>1</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="39"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="22">
+        <v>2</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="39"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="39"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="22">
+        <v>3</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="39"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="39"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="22">
+        <v>4</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="39"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="22">
+        <v>5</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="22">
+        <v>6</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="22">
+        <v>7</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="41"/>
+      <c r="D42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="38"/>
+      <c r="F42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="22">
+        <v>8</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="41"/>
+      <c r="D43" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="39"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="39"/>
+      <c r="K43" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
+  <mergeCells count="103">
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:H35"/>
+    <mergeCell ref="I34:K35"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="F22:H23"/>
+    <mergeCell ref="I22:K23"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="I12:K13"/>
+    <mergeCell ref="G7:K7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -1537,31 +1812,45 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="F22:H23"/>
-    <mergeCell ref="I22:K23"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="I12:K13"/>
-    <mergeCell ref="G7:K7"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="F12:H13"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1581,40 +1870,40 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -1630,10 +1919,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1658,23 +1947,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6"/>
@@ -1693,90 +1982,90 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
@@ -1807,165 +2096,121 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85" t="s">
+      <c r="C16" s="87"/>
+      <c r="D16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="76" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="76" t="s">
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="72"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="10"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="10"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -1975,6 +2220,50 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1993,40 +2282,40 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="73" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -2042,10 +2331,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2070,23 +2359,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="6"/>
@@ -2105,90 +2394,90 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
@@ -2219,165 +2508,121 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="85" t="s">
+      <c r="C16" s="87"/>
+      <c r="D16" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="76" t="s">
+      <c r="E16" s="91"/>
+      <c r="F16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="76" t="s">
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="78"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="72"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="10"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="10"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2387,6 +2632,50 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
